--- a/data/combined-data-tables/2022-03-11_lg-bg-demographics.xlsx
+++ b/data/combined-data-tables/2022-03-11_lg-bg-demographics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freya\Desktop\PhD\3 SLI-Aptitude\data\session-1\language-background-demographics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freya\Desktop\PhD\3 SLI-Aptitude\data\combined-data-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C50CD44-4186-4752-ABB5-0D431A4E4AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA32284-EFE9-4FF3-BA78-642EF8DE1545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="324">
   <si>
     <t>Timestamp</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>4 years ago</t>
   </si>
   <si>
     <t>A or A-S level/ NVQ level 3 or equivalent</t>
@@ -565,9 +562,6 @@
     <t>Mother</t>
   </si>
   <si>
-    <t>Birth</t>
-  </si>
-  <si>
     <t>A or A-S level/ NVQ level 3 or equivalent, Currently undergraduate</t>
   </si>
   <si>
@@ -804,30 +798,6 @@
     <t xml:space="preserve">Signature Level 2 </t>
   </si>
   <si>
-    <t>rebsmsmith@gmail.com</t>
-  </si>
-  <si>
-    <t>Rebecca Smith</t>
-  </si>
-  <si>
-    <t>WV2121</t>
-  </si>
-  <si>
-    <t>Lichfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanny - but has a hearing aid </t>
-  </si>
-  <si>
-    <t>English - since birth - use it everyday</t>
-  </si>
-  <si>
-    <t>1/4 of a day 1/3 a month</t>
-  </si>
-  <si>
-    <t>2/4 of a day 4/5 a month</t>
-  </si>
-  <si>
     <t>HW1091</t>
   </si>
   <si>
@@ -969,9 +939,6 @@
     <t>Level 1</t>
   </si>
   <si>
-    <t>Parents? Double-check</t>
-  </si>
-  <si>
     <t>Holly Curless</t>
   </si>
   <si>
@@ -1042,6 +1009,12 @@
   </si>
   <si>
     <t>Elle Madigan</t>
+  </si>
+  <si>
+    <t>father (oral but some sign)</t>
+  </si>
+  <si>
+    <t>Years learning BSL</t>
   </si>
 </sst>
 </file>
@@ -1318,70 +1291,72 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF35"/>
+  <dimension ref="A1:BG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T2" activeCellId="2" sqref="T11:T12 T8:T9 T2:T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="21.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="64" width="21.5703125" customWidth="1"/>
+    <col min="13" max="14" width="21.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.5546875" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="21.5546875" customWidth="1"/>
+    <col min="26" max="26" width="31" customWidth="1"/>
+    <col min="27" max="65" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -1390,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>6</v>
@@ -1399,139 +1374,142 @@
         <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
@@ -1542,13 +1520,13 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>55</v>
@@ -1562,7 +1540,7 @@
         <v>58</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R2" s="2">
         <v>4</v>
@@ -1570,45 +1548,48 @@
       <c r="S2" s="2">
         <v>8</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="2">
+      <c r="T2" s="2">
+        <f>G2-S2</f>
+        <v>10</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="2">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z2" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA2" s="2">
         <v>2</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2">
         <v>0</v>
       </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2">
         <v>4</v>
       </c>
-      <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
@@ -1631,28 +1612,31 @@
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>60</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>55</v>
@@ -1667,16 +1651,21 @@
       <c r="R3" s="2">
         <v>1</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="2"/>
+      <c r="S3" s="2">
+        <v>60</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T34" si="0">G3-S3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -1711,17 +1700,18 @@
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
@@ -1732,13 +1722,13 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>55</v>
@@ -1750,45 +1740,50 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="S4" s="3">
+        <v>16</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>296</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z4" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA4" s="2">
         <v>2</v>
       </c>
-      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="2" t="s">
-        <v>298</v>
-      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF4" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ4" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
@@ -1811,28 +1806,31 @@
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>17</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>55</v>
@@ -1843,8 +1841,13 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="S5" s="9">
+        <v>17</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1883,28 +1886,31 @@
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>18</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>55</v>
@@ -1915,8 +1921,13 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="S6" s="9">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1955,17 +1966,18 @@
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>51</v>
@@ -1976,44 +1988,49 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>58</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="S7" s="3">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="U7" s="2"/>
-      <c r="V7" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="V7" s="2"/>
       <c r="W7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z7" s="2">
+        <v>59</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA7" s="2">
         <v>1</v>
       </c>
-      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -2045,17 +2062,18 @@
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>51</v>
@@ -2066,13 +2084,13 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>55</v>
@@ -2083,23 +2101,28 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="S8" s="3">
+        <v>29</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="V8" s="2"/>
       <c r="W8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z8" s="2">
+        <v>300</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA8" s="2">
         <v>2</v>
       </c>
-      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -2131,17 +2154,18 @@
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>51</v>
@@ -2152,13 +2176,13 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
@@ -2170,21 +2194,26 @@
         <v>55</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R9" s="2">
         <v>1</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="3">
+        <v>17</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U9" s="2"/>
-      <c r="V9" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -2219,20 +2248,21 @@
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="3">
@@ -2240,19 +2270,19 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>57</v>
@@ -2262,20 +2292,23 @@
         <v>58</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R10" s="2">
         <v>6</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="U10" s="2"/>
-      <c r="V10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
@@ -2283,16 +2316,16 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF10" s="4">
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG10" s="4">
         <v>0.5</v>
       </c>
-      <c r="AG10" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
@@ -2317,17 +2350,18 @@
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>51</v>
@@ -2338,13 +2372,13 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>55</v>
@@ -2354,16 +2388,21 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="3">
+        <v>18</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U11" s="2"/>
-      <c r="V11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
@@ -2374,10 +2413,10 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
@@ -2401,17 +2440,18 @@
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>51</v>
@@ -2422,13 +2462,13 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>55</v>
@@ -2438,18 +2478,23 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R12" s="2">
         <v>3</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="3">
+        <v>17</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="U12" s="2"/>
-      <c r="V12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -2485,19 +2530,20 @@
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43727</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>51</v>
@@ -2510,19 +2556,19 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>57</v>
@@ -2534,7 +2580,7 @@
         <v>55</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R13" s="2">
         <v>3</v>
@@ -2542,78 +2588,79 @@
       <c r="S13" s="2">
         <v>16</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" s="2">
+      <c r="T13" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="2">
         <v>1</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="W13" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="AA13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Z13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AF13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AF13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="AH13" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="AJ13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AK13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="AR13" s="2" t="s">
         <v>56</v>
       </c>
@@ -2621,16 +2668,16 @@
         <v>56</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>56</v>
@@ -2639,16 +2686,16 @@
         <v>56</v>
       </c>
       <c r="AZ13" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA13" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="BC13" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="BD13" s="2" t="s">
         <v>56</v>
@@ -2657,24 +2704,27 @@
         <v>56</v>
       </c>
       <c r="BF13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43726.594576261574</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F14" s="7">
         <v>36683</v>
@@ -2684,22 +2734,22 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="O14" s="2">
         <v>8</v>
@@ -2708,7 +2758,7 @@
         <v>58</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R14" s="2">
         <v>2</v>
@@ -2716,57 +2766,58 @@
       <c r="S14" s="2">
         <v>18</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="T14" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>60</v>
+      <c r="U14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Z14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AF14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AG14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AI14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="AK14" s="2" t="s">
         <v>56</v>
       </c>
@@ -2777,10 +2828,10 @@
         <v>56</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AP14" s="2" t="s">
         <v>56</v>
@@ -2795,10 +2846,10 @@
         <v>56</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AV14" s="2" t="s">
         <v>56</v>
@@ -2813,13 +2864,13 @@
         <v>56</v>
       </c>
       <c r="AZ14" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="BA14" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="BB14" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BC14" s="2" t="s">
         <v>56</v>
@@ -2831,21 +2882,24 @@
         <v>56</v>
       </c>
       <c r="BF14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG14" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43726.869856724537</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>51</v>
@@ -2858,19 +2912,19 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>57</v>
@@ -2882,7 +2936,7 @@
         <v>55</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R15" s="2">
         <v>1</v>
@@ -2890,136 +2944,140 @@
       <c r="S15" s="2">
         <v>48</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U15" s="2">
+      <c r="T15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="2">
         <v>4</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="W15" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="X15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE15" s="4">
+      <c r="AF15" s="4">
         <v>0.01</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AG15" s="5">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AH15" s="5">
         <v>1E-3</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI15" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="AZ15" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA15" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="BB15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="BC15" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="BD15" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="BE15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG15" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43726.861475347221</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>51</v>
@@ -3032,19 +3090,19 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="L16" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>57</v>
@@ -3056,7 +3114,7 @@
         <v>55</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R16" s="2">
         <v>4</v>
@@ -3064,50 +3122,54 @@
       <c r="S16" s="2">
         <v>12</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="T16" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="2">
         <v>0</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="W16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="AA16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AA16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AF16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AE16" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="AF16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="AJ16" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AK16" s="2" t="s">
         <v>56</v>
@@ -3119,10 +3181,10 @@
         <v>56</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AP16" s="2" t="s">
         <v>56</v>
@@ -3137,10 +3199,10 @@
         <v>56</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AV16" s="2" t="s">
         <v>56</v>
@@ -3155,13 +3217,13 @@
         <v>56</v>
       </c>
       <c r="AZ16" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA16" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BC16" s="2" t="s">
         <v>56</v>
@@ -3173,21 +3235,24 @@
         <v>56</v>
       </c>
       <c r="BF16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43726.415796967594</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
@@ -3200,19 +3265,19 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="L17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>57</v>
@@ -3224,7 +3289,7 @@
         <v>58</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R17" s="2">
         <v>2</v>
@@ -3232,47 +3297,48 @@
       <c r="S17" s="2">
         <v>43</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U17" s="2">
+      <c r="T17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="2">
         <v>4</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="W17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="W17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AH17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="AJ17" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AK17" s="2" t="s">
         <v>56</v>
@@ -3284,10 +3350,10 @@
         <v>56</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AP17" s="2" t="s">
         <v>56</v>
@@ -3302,10 +3368,10 @@
         <v>56</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AV17" s="2" t="s">
         <v>56</v>
@@ -3320,13 +3386,13 @@
         <v>56</v>
       </c>
       <c r="AZ17" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="BA17" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="BB17" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BC17" s="2" t="s">
         <v>56</v>
@@ -3338,21 +3404,24 @@
         <v>56</v>
       </c>
       <c r="BF17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43727.300851064814</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
@@ -3365,22 +3434,22 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="O18" s="2">
         <v>70</v>
@@ -3389,7 +3458,7 @@
         <v>55</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R18" s="2">
         <v>1</v>
@@ -3397,44 +3466,45 @@
       <c r="S18" s="2">
         <v>32</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V18" s="2" t="s">
+      <c r="T18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="W18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB18" s="2" t="s">
+      <c r="AD18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AE18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>10</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="AJ18" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AK18" s="2" t="s">
         <v>56</v>
@@ -3446,13 +3516,13 @@
         <v>56</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AQ18" s="2" t="s">
         <v>56</v>
@@ -3464,13 +3534,13 @@
         <v>56</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AW18" s="2" t="s">
         <v>56</v>
@@ -3482,13 +3552,13 @@
         <v>56</v>
       </c>
       <c r="AZ18" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="BA18" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="BB18" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BC18" s="2" t="s">
         <v>56</v>
@@ -3500,10 +3570,13 @@
         <v>56</v>
       </c>
       <c r="BF18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43725.95215138889</v>
       </c>
@@ -3539,7 +3612,7 @@
         <v>55</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>57</v>
@@ -3551,144 +3624,148 @@
         <v>58</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R19" s="2">
         <v>4</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="2">
+        <v>50</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1</v>
-      </c>
-      <c r="V19" s="2" t="s">
+      <c r="X19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="W19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="AA19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z19" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AD19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AC19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AF19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AG19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AH19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="AJ19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AZ19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BA19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BB19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BC19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BE19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG19" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43727.452057025468</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -3701,19 +3778,19 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="L20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>57</v>
@@ -3725,7 +3802,7 @@
         <v>55</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R20" s="2">
         <v>1</v>
@@ -3733,127 +3810,131 @@
       <c r="S20" s="2">
         <v>18</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U20" s="2">
+      <c r="T20" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>60</v>
+      <c r="U20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE20" s="2">
+        <v>62</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF20" s="2">
         <v>10</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AG20" s="2">
         <v>80</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AH20" s="2">
         <v>20</v>
       </c>
-      <c r="AH20" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI20" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AQ20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AR20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD20" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="BE20" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="BF20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43727.35667079861</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -3866,19 +3947,19 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>57</v>
@@ -3890,7 +3971,7 @@
         <v>55</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R21" s="2">
         <v>2</v>
@@ -3898,47 +3979,48 @@
       <c r="S21" s="2">
         <v>17</v>
       </c>
-      <c r="T21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="T21" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="U21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="W21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AG21" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="AH21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AF21" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI21" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AK21" s="2" t="s">
         <v>56</v>
@@ -3950,13 +4032,13 @@
         <v>56</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AP21" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AQ21" s="2" t="s">
         <v>56</v>
@@ -3968,10 +4050,10 @@
         <v>56</v>
       </c>
       <c r="AT21" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AV21" s="2" t="s">
         <v>56</v>
@@ -3986,13 +4068,13 @@
         <v>56</v>
       </c>
       <c r="AZ21" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA21" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="BB21" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="BC21" s="2" t="s">
         <v>56</v>
@@ -4004,21 +4086,24 @@
         <v>56</v>
       </c>
       <c r="BF21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43728.352210243058</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -4031,22 +4116,22 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="O22" s="2">
         <v>84</v>
@@ -4055,7 +4140,7 @@
         <v>55</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R22" s="2">
         <v>1</v>
@@ -4063,47 +4148,48 @@
       <c r="S22" s="2">
         <v>19</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="T22" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>60</v>
+      <c r="U22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AG22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AF22" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="AI22" s="2" t="s">
         <v>93</v>
       </c>
       <c r="AJ22" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AK22" s="2" t="s">
         <v>56</v>
@@ -4115,10 +4201,10 @@
         <v>56</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AP22" s="2" t="s">
         <v>56</v>
@@ -4133,10 +4219,10 @@
         <v>56</v>
       </c>
       <c r="AT22" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AV22" s="2" t="s">
         <v>56</v>
@@ -4151,13 +4237,13 @@
         <v>56</v>
       </c>
       <c r="AZ22" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="BA22" s="2" t="s">
         <v>93</v>
       </c>
       <c r="BB22" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="BC22" s="2" t="s">
         <v>56</v>
@@ -4169,21 +4255,24 @@
         <v>56</v>
       </c>
       <c r="BF22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG22" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43727.488314282411</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
@@ -4196,19 +4285,19 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>57</v>
@@ -4228,56 +4317,57 @@
       <c r="S23" s="2">
         <v>18</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U23" s="2">
+      <c r="T23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" s="2">
         <v>1</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="W23" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA23" s="2" t="s">
-        <v>55</v>
+      <c r="Z23" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="AH23" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AL23" s="2" t="s">
         <v>56</v>
@@ -4286,16 +4376,16 @@
         <v>56</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AQ23" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AR23" s="2" t="s">
         <v>56</v>
@@ -4304,16 +4394,16 @@
         <v>56</v>
       </c>
       <c r="AT23" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AW23" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>56</v>
@@ -4322,16 +4412,16 @@
         <v>56</v>
       </c>
       <c r="AZ23" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA23" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="BB23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BC23" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BD23" s="2" t="s">
         <v>56</v>
@@ -4340,21 +4430,24 @@
         <v>56</v>
       </c>
       <c r="BF23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43727.488480335647</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -4367,19 +4460,19 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="L24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>57</v>
@@ -4391,7 +4484,7 @@
         <v>55</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R24" s="2">
         <v>1</v>
@@ -4399,50 +4492,51 @@
       <c r="S24" s="2">
         <v>20</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="T24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V24" s="2">
         <v>1</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="W24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF24" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AG24" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AF24" s="2" t="s">
+      <c r="AH24" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AG24" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI24" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AL24" s="2" t="s">
         <v>56</v>
@@ -4451,13 +4545,13 @@
         <v>56</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AP24" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AQ24" s="2" t="s">
         <v>56</v>
@@ -4469,13 +4563,13 @@
         <v>56</v>
       </c>
       <c r="AT24" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="AV24" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="AW24" s="2" t="s">
         <v>56</v>
@@ -4487,16 +4581,16 @@
         <v>56</v>
       </c>
       <c r="AZ24" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA24" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="BB24" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="BC24" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="BD24" s="2" t="s">
         <v>56</v>
@@ -4505,21 +4599,24 @@
         <v>56</v>
       </c>
       <c r="BF24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43739.659649618057</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
@@ -4532,22 +4629,22 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O25" s="2">
         <v>50</v>
@@ -4556,7 +4653,7 @@
         <v>58</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R25" s="2">
         <v>2</v>
@@ -4564,136 +4661,140 @@
       <c r="S25" s="2">
         <v>20</v>
       </c>
-      <c r="T25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="T25" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>60</v>
+      <c r="U25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="AF25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="Z25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF25" s="4">
+      <c r="AG25" s="4">
         <v>0.25</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AH25" s="2">
         <v>0</v>
       </c>
-      <c r="AH25" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI25" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AJ25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AK25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ25" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AR25" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AT25" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AV25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AW25" s="2" t="s">
+      <c r="BD25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AX25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="BE25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="BF25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43742.460414814814</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>51</v>
@@ -4706,22 +4807,22 @@
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -4730,7 +4831,7 @@
         <v>55</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R26" s="2">
         <v>4</v>
@@ -4738,136 +4839,140 @@
       <c r="S26" s="2">
         <v>28</v>
       </c>
-      <c r="T26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U26" s="2">
+      <c r="T26" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="2">
         <v>0</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="W26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE26" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Y26" s="2" t="s">
+      <c r="AF26" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="Z26" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AG26" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AH26" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AF26" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI26" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="AJ26" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="AM26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AP26" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="AQ26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR26" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AT26" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX26" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="AY26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AZ26" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA26" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="BB26" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="BC26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BD26" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="BE26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="BF26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43739.668378148148</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>51</v>
@@ -4880,19 +4985,19 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>57</v>
@@ -4904,7 +5009,7 @@
         <v>55</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R27" s="2">
         <v>3</v>
@@ -4912,133 +5017,137 @@
       <c r="S27" s="2">
         <v>32</v>
       </c>
-      <c r="T27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U27" s="2">
+      <c r="T27" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="U27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" s="2">
+        <v>2</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z27" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="W27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X27" s="2" t="s">
+      <c r="AA27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="Y27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE27" s="4">
+      <c r="AF27" s="4">
         <v>0.08</v>
       </c>
-      <c r="AF27" s="4">
+      <c r="AG27" s="4">
         <v>0.92</v>
       </c>
-      <c r="AH27" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AI27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AK27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AP27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AV27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AX27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AZ27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BA27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BB27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BC27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG27" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43739.55943090278</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>51</v>
@@ -5051,22 +5160,22 @@
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="N28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="2">
         <v>15</v>
@@ -5075,61 +5184,62 @@
         <v>58</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R28" s="2">
         <v>4</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="T28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2" t="s">
+      <c r="Z28" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="W28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="2" t="s">
+      <c r="AA28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Y28" s="2" t="s">
+      <c r="AF28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Z28" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF28" s="4">
+      <c r="AG28" s="4">
         <v>0.9</v>
       </c>
-      <c r="AH28" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI28" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="AK28" s="2" t="s">
         <v>56</v>
@@ -5141,10 +5251,10 @@
         <v>56</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AP28" s="2" t="s">
         <v>56</v>
@@ -5159,10 +5269,10 @@
         <v>56</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU28" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AV28" s="2" t="s">
         <v>56</v>
@@ -5177,13 +5287,13 @@
         <v>56</v>
       </c>
       <c r="AZ28" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA28" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="BB28" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="BC28" s="2" t="s">
         <v>56</v>
@@ -5195,21 +5305,24 @@
         <v>56</v>
       </c>
       <c r="BF28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43740.700071284722</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>51</v>
@@ -5222,19 +5335,19 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>57</v>
@@ -5246,7 +5359,7 @@
         <v>55</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R29" s="2">
         <v>4</v>
@@ -5254,53 +5367,54 @@
       <c r="S29" s="2">
         <v>21</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U29" s="2">
+      <c r="T29" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>60</v>
+      <c r="U29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="Y29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE29" s="4">
+      <c r="AF29" s="4">
         <v>0.1</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AG29" s="4">
         <v>1</v>
       </c>
-      <c r="AH29" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI29" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="AK29" s="2" t="s">
         <v>56</v>
@@ -5312,13 +5426,13 @@
         <v>56</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="AP29" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="AQ29" s="2" t="s">
         <v>56</v>
@@ -5330,10 +5444,10 @@
         <v>56</v>
       </c>
       <c r="AT29" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU29" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AV29" s="2" t="s">
         <v>56</v>
@@ -5348,13 +5462,13 @@
         <v>56</v>
       </c>
       <c r="AZ29" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA29" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="BB29" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="BC29" s="2" t="s">
         <v>56</v>
@@ -5366,21 +5480,24 @@
         <v>56</v>
       </c>
       <c r="BF29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG29" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43740.734722210647</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>51</v>
@@ -5393,19 +5510,19 @@
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>57</v>
@@ -5417,7 +5534,7 @@
         <v>55</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R30" s="2">
         <v>3</v>
@@ -5425,56 +5542,57 @@
       <c r="S30" s="2">
         <v>32</v>
       </c>
-      <c r="T30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U30" s="2">
+      <c r="T30" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V30" s="2">
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="W30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z30" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA30" s="2">
         <v>2</v>
       </c>
-      <c r="AA30" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="AB30" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE30" s="4">
+        <v>62</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF30" s="4">
         <v>0.05</v>
       </c>
-      <c r="AF30" s="4">
+      <c r="AG30" s="4">
         <v>1</v>
       </c>
-      <c r="AG30" s="4">
+      <c r="AH30" s="4">
         <v>0</v>
       </c>
-      <c r="AH30" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI30" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AK30" s="2" t="s">
         <v>56</v>
@@ -5486,10 +5604,10 @@
         <v>56</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AP30" s="2" t="s">
         <v>56</v>
@@ -5504,10 +5622,10 @@
         <v>56</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="AV30" s="2" t="s">
         <v>56</v>
@@ -5522,13 +5640,13 @@
         <v>56</v>
       </c>
       <c r="AZ30" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA30" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="BB30" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="BC30" s="2" t="s">
         <v>56</v>
@@ -5540,21 +5658,24 @@
         <v>56</v>
       </c>
       <c r="BF30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG30" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43741.555081469909</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>51</v>
@@ -5567,19 +5688,19 @@
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>57</v>
@@ -5591,7 +5712,7 @@
         <v>55</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R31" s="2">
         <v>3</v>
@@ -5599,136 +5720,140 @@
       <c r="S31" s="2">
         <v>21</v>
       </c>
-      <c r="T31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U31" s="2">
+      <c r="T31" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>99</v>
+      <c r="U31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V31" s="2">
+        <v>2</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="X31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="Y31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE31" s="4">
+      <c r="AF31" s="4">
         <v>0.1</v>
       </c>
-      <c r="AF31" s="4">
+      <c r="AG31" s="4">
         <v>1</v>
       </c>
-      <c r="AG31" s="4">
+      <c r="AH31" s="4">
         <v>0</v>
       </c>
-      <c r="AH31" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="AI31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AY31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AZ31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BC31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BE31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BF31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG31" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43741.64253271991</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>51</v>
@@ -5741,19 +5866,19 @@
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>57</v>
@@ -5765,7 +5890,7 @@
         <v>58</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R32" s="2">
         <v>3</v>
@@ -5773,53 +5898,54 @@
       <c r="S32" s="2">
         <v>17</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U32" s="2">
+      <c r="T32" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>60</v>
+      <c r="U32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V32" s="2">
+        <v>2</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Y32" s="2" t="s">
+      <c r="AC32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE32" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Z32" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE32" s="4">
+      <c r="AF32" s="4">
         <v>0.3</v>
       </c>
-      <c r="AF32" s="4">
+      <c r="AG32" s="4">
         <v>1</v>
       </c>
-      <c r="AH32" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI32" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AK32" s="2" t="s">
         <v>56</v>
@@ -5831,10 +5957,10 @@
         <v>56</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO32" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AP32" s="2" t="s">
         <v>56</v>
@@ -5849,10 +5975,10 @@
         <v>56</v>
       </c>
       <c r="AT32" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AV32" s="2" t="s">
         <v>56</v>
@@ -5867,13 +5993,13 @@
         <v>56</v>
       </c>
       <c r="AZ32" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA32" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="BB32" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BC32" s="2" t="s">
         <v>56</v>
@@ -5885,24 +6011,27 @@
         <v>56</v>
       </c>
       <c r="BF32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG32" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43742.5381690625</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="7">
         <v>30997</v>
@@ -5912,22 +6041,22 @@
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="L33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O33" s="2">
         <v>20</v>
@@ -5936,7 +6065,7 @@
         <v>55</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R33" s="2">
         <v>3</v>
@@ -5944,139 +6073,143 @@
       <c r="S33" s="2">
         <v>22</v>
       </c>
-      <c r="T33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U33" s="2">
+      <c r="T33" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="W33" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z33" s="2">
+        <v>249</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA33" s="2">
         <v>2</v>
       </c>
-      <c r="AA33" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="AB33" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE33" s="4">
+        <v>62</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF33" s="4">
         <v>0.1</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AG33" s="2">
         <v>100</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AH33" s="2">
         <v>0</v>
       </c>
-      <c r="AH33" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AI33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AO33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT33" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AV33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AZ33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BA33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BB33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BC33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BF33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43742.469701875001</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="F34" s="7">
         <v>36408</v>
@@ -6086,22 +6219,22 @@
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O34" s="2">
         <v>5</v>
@@ -6110,7 +6243,7 @@
         <v>58</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R34" s="2">
         <v>3</v>
@@ -6118,53 +6251,54 @@
       <c r="S34" s="2">
         <v>8</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U34" s="2">
+      <c r="T34" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" s="2">
         <v>2</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="W34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE34" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="Y34" s="2" t="s">
+      <c r="AF34" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="Z34" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD34" s="2" t="s">
+      <c r="AG34" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AE34" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF34" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH34" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="AI34" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AK34" s="2" t="s">
         <v>56</v>
@@ -6176,10 +6310,10 @@
         <v>56</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AO34" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AP34" s="2" t="s">
         <v>56</v>
@@ -6194,10 +6328,10 @@
         <v>56</v>
       </c>
       <c r="AT34" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="AU34" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AV34" s="2" t="s">
         <v>56</v>
@@ -6212,13 +6346,13 @@
         <v>56</v>
       </c>
       <c r="AZ34" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="BA34" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="BB34" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BC34" s="2" t="s">
         <v>56</v>
@@ -6230,174 +6364,15 @@
         <v>56</v>
       </c>
       <c r="BF34" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>43746.774790844909</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="7">
-        <v>34210</v>
-      </c>
-      <c r="G35" s="3">
-        <v>26</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O35" s="2">
-        <v>20</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="R35" s="2">
-        <v>2</v>
-      </c>
-      <c r="S35" s="2">
-        <v>26</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF35" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG34" s="2" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BF35">
-    <sortCondition ref="D13:D35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG34">
+    <sortCondition ref="D13:D34"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{065BA025-F11E-4EA3-814F-BAEF89BCFC72}"/>

--- a/data/combined-data-tables/2022-03-11_lg-bg-demographics.xlsx
+++ b/data/combined-data-tables/2022-03-11_lg-bg-demographics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freya\Desktop\PhD\3 SLI-Aptitude\data\combined-data-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA32284-EFE9-4FF3-BA78-642EF8DE1545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A1995-C678-4E7E-8AA5-CB9ED2AF453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,9 +1293,9 @@
   </sheetPr>
   <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" activeCellId="2" sqref="T11:T12 T8:T9 T2:T6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,9 @@
       <c r="Q4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>2</v>
+      </c>
       <c r="S4" s="3">
         <v>16</v>
       </c>
@@ -1840,7 +1842,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
       <c r="S5" s="9">
         <v>17</v>
       </c>
@@ -1920,7 +1924,9 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
       <c r="S6" s="9">
         <v>18</v>
       </c>
@@ -2008,7 +2014,9 @@
       <c r="Q7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
       <c r="S7" s="3">
         <v>3</v>
       </c>
@@ -2100,7 +2108,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
       <c r="S8" s="3">
         <v>29</v>
       </c>
@@ -2390,7 +2400,9 @@
       <c r="Q11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
       <c r="S11" s="3">
         <v>18</v>
       </c>
